--- a/database/industries/folad/kavir/product/monthly_seprated.xlsx
+++ b/database/industries/folad/kavir/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="87">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3297,8 +3297,8 @@
       <c r="T11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>58</v>
+      <c r="U11" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V11" s="13" t="n">
         <v>0</v>
@@ -3327,8 +3327,8 @@
       <c r="AD11" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE11" s="13" t="n">
-        <v>0</v>
+      <c r="AE11" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF11" s="13" t="s">
         <v>58</v>
@@ -3357,8 +3357,8 @@
       <c r="AN11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO11" s="13" t="s">
-        <v>58</v>
+      <c r="AO11" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP11" s="13" t="n">
         <v>0</v>
@@ -3534,8 +3534,8 @@
       <c r="AT12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AU12" s="16" t="s">
-        <v>58</v>
+      <c r="AU12" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AV12" s="16" t="n">
         <v>0</v>
@@ -3615,107 +3615,107 @@
       <c r="T13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U13" s="13" t="s">
-        <v>58</v>
+      <c r="U13" s="13" t="n">
+        <v>36689801</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>36689801</v>
+        <v>40111630</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>40111630</v>
+        <v>33935000</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>33935000</v>
+        <v>30441700</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>30441700</v>
+        <v>31612587</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>31612587</v>
+        <v>19182460</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>19182460</v>
+        <v>14560181</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>14560181</v>
+        <v>22088033</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>22088033</v>
+        <v>20022667</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>20022667</v>
+        <v>22727207</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>22727207</v>
+        <v>33081444</v>
       </c>
       <c r="AF13" s="13" t="n">
-        <v>33081444</v>
+        <v>13675301</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>13675301</v>
+        <v>8702541</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>8702541</v>
+        <v>30991837</v>
       </c>
       <c r="AI13" s="13" t="n">
-        <v>30991837</v>
+        <v>14950282</v>
       </c>
       <c r="AJ13" s="13" t="n">
-        <v>14950282</v>
+        <v>31474981</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>31474981</v>
+        <v>20286530</v>
       </c>
       <c r="AL13" s="13" t="n">
-        <v>20286530</v>
+        <v>37193848</v>
       </c>
       <c r="AM13" s="13" t="n">
-        <v>37193848</v>
+        <v>35288406</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>35288406</v>
+        <v>12185580</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>12185580</v>
+        <v>33968880</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>33968880</v>
+        <v>50380097</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>50380097</v>
+        <v>7075666</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>7075666</v>
+        <v>8111670</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>8111670</v>
+        <v>11147672</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>11147672</v>
+        <v>35746694</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>35746694</v>
+        <v>27136021</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>27136021</v>
+        <v>37266340</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>37266340</v>
+        <v>29880280</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>29880280</v>
+        <v>14552414</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>14552414</v>
+        <v>2140386</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>2140386</v>
+        <v>21311413</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>21311413</v>
+        <v>22262407</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>22262407</v>
+        <v>23061295</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3774,107 +3774,107 @@
       <c r="T14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U14" s="16" t="s">
-        <v>58</v>
+      <c r="U14" s="16" t="n">
+        <v>1458365</v>
       </c>
       <c r="V14" s="16" t="n">
-        <v>1458365</v>
+        <v>2115330</v>
       </c>
       <c r="W14" s="16" t="n">
-        <v>2115330</v>
+        <v>3474482</v>
       </c>
       <c r="X14" s="16" t="n">
-        <v>3474482</v>
+        <v>1447560</v>
       </c>
       <c r="Y14" s="16" t="n">
-        <v>1447560</v>
+        <v>981480</v>
       </c>
       <c r="Z14" s="16" t="n">
-        <v>981480</v>
+        <v>2864440</v>
       </c>
       <c r="AA14" s="16" t="n">
-        <v>2864440</v>
+        <v>1947780</v>
       </c>
       <c r="AB14" s="16" t="n">
-        <v>1947780</v>
+        <v>2116000</v>
       </c>
       <c r="AC14" s="16" t="n">
-        <v>2116000</v>
+        <v>1302700</v>
       </c>
       <c r="AD14" s="16" t="n">
-        <v>1302700</v>
+        <v>1679380</v>
       </c>
       <c r="AE14" s="16" t="n">
-        <v>1679380</v>
+        <v>1019140</v>
       </c>
       <c r="AF14" s="16" t="n">
-        <v>1019140</v>
+        <v>957580</v>
       </c>
       <c r="AG14" s="16" t="n">
-        <v>957580</v>
+        <v>581580</v>
       </c>
       <c r="AH14" s="16" t="n">
-        <v>581580</v>
+        <v>727320</v>
       </c>
       <c r="AI14" s="16" t="n">
-        <v>727320</v>
+        <v>595060</v>
       </c>
       <c r="AJ14" s="16" t="n">
-        <v>595060</v>
+        <v>892500</v>
       </c>
       <c r="AK14" s="16" t="n">
-        <v>892500</v>
+        <v>1621180</v>
       </c>
       <c r="AL14" s="16" t="n">
-        <v>1621180</v>
+        <v>1338240</v>
       </c>
       <c r="AM14" s="16" t="n">
-        <v>1338240</v>
+        <v>1054780</v>
       </c>
       <c r="AN14" s="16" t="n">
-        <v>1054780</v>
+        <v>1020200</v>
       </c>
       <c r="AO14" s="16" t="n">
-        <v>1020200</v>
+        <v>1130000</v>
       </c>
       <c r="AP14" s="16" t="n">
-        <v>1130000</v>
+        <v>1000200</v>
       </c>
       <c r="AQ14" s="16" t="n">
-        <v>1000200</v>
+        <v>98940</v>
       </c>
       <c r="AR14" s="16" t="n">
-        <v>98940</v>
+        <v>333120</v>
       </c>
       <c r="AS14" s="16" t="n">
-        <v>333120</v>
+        <v>380120</v>
       </c>
       <c r="AT14" s="16" t="n">
-        <v>380120</v>
+        <v>927860</v>
       </c>
       <c r="AU14" s="16" t="n">
-        <v>927860</v>
+        <v>1085160</v>
       </c>
       <c r="AV14" s="16" t="n">
-        <v>1085160</v>
+        <v>948280</v>
       </c>
       <c r="AW14" s="16" t="n">
-        <v>948280</v>
+        <v>1222000</v>
       </c>
       <c r="AX14" s="16" t="n">
-        <v>1222000</v>
+        <v>636100</v>
       </c>
       <c r="AY14" s="16" t="n">
-        <v>636100</v>
+        <v>621000</v>
       </c>
       <c r="AZ14" s="16" t="n">
-        <v>621000</v>
+        <v>852700</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>852700</v>
+        <v>770600</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>770600</v>
+        <v>345560</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3932,106 +3932,106 @@
         <v>0</v>
       </c>
       <c r="U15" s="18" t="n">
-        <v>0</v>
+        <v>38148166</v>
       </c>
       <c r="V15" s="18" t="n">
-        <v>38148166</v>
+        <v>42226960</v>
       </c>
       <c r="W15" s="18" t="n">
-        <v>42226960</v>
+        <v>37409482</v>
       </c>
       <c r="X15" s="18" t="n">
-        <v>37409482</v>
+        <v>31889260</v>
       </c>
       <c r="Y15" s="18" t="n">
-        <v>31889260</v>
+        <v>32594067</v>
       </c>
       <c r="Z15" s="18" t="n">
-        <v>32594067</v>
+        <v>22046900</v>
       </c>
       <c r="AA15" s="18" t="n">
-        <v>22046900</v>
+        <v>16507961</v>
       </c>
       <c r="AB15" s="18" t="n">
-        <v>16507961</v>
+        <v>24204033</v>
       </c>
       <c r="AC15" s="18" t="n">
-        <v>24204033</v>
+        <v>21325367</v>
       </c>
       <c r="AD15" s="18" t="n">
-        <v>21325367</v>
+        <v>24406587</v>
       </c>
       <c r="AE15" s="18" t="n">
-        <v>24406587</v>
+        <v>34100584</v>
       </c>
       <c r="AF15" s="18" t="n">
-        <v>34100584</v>
+        <v>14632881</v>
       </c>
       <c r="AG15" s="18" t="n">
-        <v>14632881</v>
+        <v>9284121</v>
       </c>
       <c r="AH15" s="18" t="n">
-        <v>9284121</v>
+        <v>31719157</v>
       </c>
       <c r="AI15" s="18" t="n">
-        <v>31719157</v>
+        <v>15545342</v>
       </c>
       <c r="AJ15" s="18" t="n">
-        <v>15545342</v>
+        <v>32367481</v>
       </c>
       <c r="AK15" s="18" t="n">
-        <v>32367481</v>
+        <v>21907710</v>
       </c>
       <c r="AL15" s="18" t="n">
-        <v>21907710</v>
+        <v>38532088</v>
       </c>
       <c r="AM15" s="18" t="n">
-        <v>38532088</v>
+        <v>36343186</v>
       </c>
       <c r="AN15" s="18" t="n">
-        <v>36343186</v>
+        <v>13205780</v>
       </c>
       <c r="AO15" s="18" t="n">
-        <v>13205780</v>
+        <v>35098880</v>
       </c>
       <c r="AP15" s="18" t="n">
-        <v>35098880</v>
+        <v>51380297</v>
       </c>
       <c r="AQ15" s="18" t="n">
-        <v>51380297</v>
+        <v>7174606</v>
       </c>
       <c r="AR15" s="18" t="n">
-        <v>7174606</v>
+        <v>8444790</v>
       </c>
       <c r="AS15" s="18" t="n">
-        <v>8444790</v>
+        <v>11527792</v>
       </c>
       <c r="AT15" s="18" t="n">
-        <v>11527792</v>
+        <v>36674554</v>
       </c>
       <c r="AU15" s="18" t="n">
-        <v>36674554</v>
+        <v>28221181</v>
       </c>
       <c r="AV15" s="18" t="n">
-        <v>28221181</v>
+        <v>38214620</v>
       </c>
       <c r="AW15" s="18" t="n">
-        <v>38214620</v>
+        <v>31102280</v>
       </c>
       <c r="AX15" s="18" t="n">
-        <v>31102280</v>
+        <v>15188514</v>
       </c>
       <c r="AY15" s="18" t="n">
-        <v>15188514</v>
+        <v>2761386</v>
       </c>
       <c r="AZ15" s="18" t="n">
-        <v>2761386</v>
+        <v>22164113</v>
       </c>
       <c r="BA15" s="18" t="n">
-        <v>22164113</v>
+        <v>23033007</v>
       </c>
       <c r="BB15" s="18" t="n">
-        <v>23033007</v>
+        <v>23406855</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4147,107 +4147,107 @@
       <c r="T17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U17" s="13" t="s">
-        <v>58</v>
+      <c r="U17" s="13" t="n">
+        <v>36228460</v>
       </c>
       <c r="V17" s="13" t="n">
-        <v>36228460</v>
+        <v>21554200</v>
       </c>
       <c r="W17" s="13" t="n">
-        <v>21554200</v>
+        <v>29502000</v>
       </c>
       <c r="X17" s="13" t="n">
-        <v>29502000</v>
+        <v>30961300</v>
       </c>
       <c r="Y17" s="13" t="n">
-        <v>30961300</v>
+        <v>40933220</v>
       </c>
       <c r="Z17" s="13" t="n">
-        <v>40933220</v>
+        <v>53842620</v>
       </c>
       <c r="AA17" s="13" t="n">
-        <v>53842620</v>
+        <v>52820140</v>
       </c>
       <c r="AB17" s="13" t="n">
-        <v>52820140</v>
+        <v>43493900</v>
       </c>
       <c r="AC17" s="13" t="n">
-        <v>43493900</v>
+        <v>38939680</v>
       </c>
       <c r="AD17" s="13" t="n">
-        <v>38939680</v>
+        <v>54566800</v>
       </c>
       <c r="AE17" s="13" t="n">
-        <v>54566800</v>
+        <v>43498140</v>
       </c>
       <c r="AF17" s="13" t="n">
-        <v>43498140</v>
+        <v>59397440</v>
       </c>
       <c r="AG17" s="13" t="n">
-        <v>59397440</v>
+        <v>31959720</v>
       </c>
       <c r="AH17" s="13" t="n">
-        <v>31959720</v>
+        <v>21849640</v>
       </c>
       <c r="AI17" s="13" t="n">
-        <v>21849640</v>
+        <v>28490080</v>
       </c>
       <c r="AJ17" s="13" t="n">
-        <v>28490080</v>
+        <v>33990280</v>
       </c>
       <c r="AK17" s="13" t="n">
-        <v>33990280</v>
+        <v>39066660</v>
       </c>
       <c r="AL17" s="13" t="n">
-        <v>39066660</v>
+        <v>34655800</v>
       </c>
       <c r="AM17" s="13" t="n">
-        <v>34655800</v>
+        <v>35255240</v>
       </c>
       <c r="AN17" s="13" t="n">
-        <v>35255240</v>
+        <v>63088420</v>
       </c>
       <c r="AO17" s="13" t="n">
-        <v>63088420</v>
+        <v>33280120</v>
       </c>
       <c r="AP17" s="13" t="n">
-        <v>33280120</v>
+        <v>18778340</v>
       </c>
       <c r="AQ17" s="13" t="n">
-        <v>18778340</v>
+        <v>0</v>
       </c>
       <c r="AR17" s="13" t="n">
-        <v>0</v>
+        <v>24058360</v>
       </c>
       <c r="AS17" s="13" t="n">
-        <v>24058360</v>
+        <v>22012680</v>
       </c>
       <c r="AT17" s="13" t="n">
-        <v>22012680</v>
+        <v>40703660</v>
       </c>
       <c r="AU17" s="13" t="n">
-        <v>40703660</v>
+        <v>51187580</v>
       </c>
       <c r="AV17" s="13" t="n">
-        <v>51187580</v>
+        <v>30386660</v>
       </c>
       <c r="AW17" s="13" t="n">
-        <v>30386660</v>
+        <v>43474720</v>
       </c>
       <c r="AX17" s="13" t="n">
-        <v>43474720</v>
+        <v>39605280</v>
       </c>
       <c r="AY17" s="13" t="n">
-        <v>39605280</v>
+        <v>31207320</v>
       </c>
       <c r="AZ17" s="13" t="n">
-        <v>31207320</v>
+        <v>29414780</v>
       </c>
       <c r="BA17" s="13" t="n">
-        <v>29414780</v>
+        <v>36683600</v>
       </c>
       <c r="BB17" s="13" t="n">
-        <v>36683600</v>
+        <v>12537040</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4305,106 +4305,106 @@
         <v>0</v>
       </c>
       <c r="U18" s="20" t="n">
-        <v>0</v>
+        <v>36228460</v>
       </c>
       <c r="V18" s="20" t="n">
-        <v>36228460</v>
+        <v>21554200</v>
       </c>
       <c r="W18" s="20" t="n">
-        <v>21554200</v>
+        <v>29502000</v>
       </c>
       <c r="X18" s="20" t="n">
-        <v>29502000</v>
+        <v>30961300</v>
       </c>
       <c r="Y18" s="20" t="n">
-        <v>30961300</v>
+        <v>40933220</v>
       </c>
       <c r="Z18" s="20" t="n">
-        <v>40933220</v>
+        <v>53842620</v>
       </c>
       <c r="AA18" s="20" t="n">
-        <v>53842620</v>
+        <v>52820140</v>
       </c>
       <c r="AB18" s="20" t="n">
-        <v>52820140</v>
+        <v>43493900</v>
       </c>
       <c r="AC18" s="20" t="n">
-        <v>43493900</v>
+        <v>38939680</v>
       </c>
       <c r="AD18" s="20" t="n">
-        <v>38939680</v>
+        <v>54566800</v>
       </c>
       <c r="AE18" s="20" t="n">
-        <v>54566800</v>
+        <v>43498140</v>
       </c>
       <c r="AF18" s="20" t="n">
-        <v>43498140</v>
+        <v>59397440</v>
       </c>
       <c r="AG18" s="20" t="n">
-        <v>59397440</v>
+        <v>31959720</v>
       </c>
       <c r="AH18" s="20" t="n">
-        <v>31959720</v>
+        <v>21849640</v>
       </c>
       <c r="AI18" s="20" t="n">
-        <v>21849640</v>
+        <v>28490080</v>
       </c>
       <c r="AJ18" s="20" t="n">
-        <v>28490080</v>
+        <v>33990280</v>
       </c>
       <c r="AK18" s="20" t="n">
-        <v>33990280</v>
+        <v>39066660</v>
       </c>
       <c r="AL18" s="20" t="n">
-        <v>39066660</v>
+        <v>34655800</v>
       </c>
       <c r="AM18" s="20" t="n">
-        <v>34655800</v>
+        <v>35255240</v>
       </c>
       <c r="AN18" s="20" t="n">
-        <v>35255240</v>
+        <v>63088420</v>
       </c>
       <c r="AO18" s="20" t="n">
-        <v>63088420</v>
+        <v>33280120</v>
       </c>
       <c r="AP18" s="20" t="n">
-        <v>33280120</v>
+        <v>18778340</v>
       </c>
       <c r="AQ18" s="20" t="n">
-        <v>18778340</v>
+        <v>0</v>
       </c>
       <c r="AR18" s="20" t="n">
-        <v>0</v>
+        <v>24058360</v>
       </c>
       <c r="AS18" s="20" t="n">
-        <v>24058360</v>
+        <v>22012680</v>
       </c>
       <c r="AT18" s="20" t="n">
-        <v>22012680</v>
+        <v>40703660</v>
       </c>
       <c r="AU18" s="20" t="n">
-        <v>40703660</v>
+        <v>51187580</v>
       </c>
       <c r="AV18" s="20" t="n">
-        <v>51187580</v>
+        <v>30386660</v>
       </c>
       <c r="AW18" s="20" t="n">
-        <v>30386660</v>
+        <v>43474720</v>
       </c>
       <c r="AX18" s="20" t="n">
-        <v>43474720</v>
+        <v>39605280</v>
       </c>
       <c r="AY18" s="20" t="n">
-        <v>39605280</v>
+        <v>31207320</v>
       </c>
       <c r="AZ18" s="20" t="n">
-        <v>31207320</v>
+        <v>29414780</v>
       </c>
       <c r="BA18" s="20" t="n">
-        <v>29414780</v>
+        <v>36683600</v>
       </c>
       <c r="BB18" s="20" t="n">
-        <v>36683600</v>
+        <v>12537040</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4518,8 +4518,8 @@
       <c r="T20" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U20" s="18" t="s">
-        <v>58</v>
+      <c r="U20" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V20" s="18" t="n">
         <v>0</v>
@@ -4676,106 +4676,106 @@
         <v>0</v>
       </c>
       <c r="U21" s="20" t="n">
-        <v>0</v>
+        <v>74376626</v>
       </c>
       <c r="V21" s="20" t="n">
-        <v>74376626</v>
+        <v>63781160</v>
       </c>
       <c r="W21" s="20" t="n">
-        <v>63781160</v>
+        <v>66911482</v>
       </c>
       <c r="X21" s="20" t="n">
-        <v>66911482</v>
+        <v>62850560</v>
       </c>
       <c r="Y21" s="20" t="n">
-        <v>62850560</v>
+        <v>73527287</v>
       </c>
       <c r="Z21" s="20" t="n">
-        <v>73527287</v>
+        <v>75889520</v>
       </c>
       <c r="AA21" s="20" t="n">
-        <v>75889520</v>
+        <v>69328101</v>
       </c>
       <c r="AB21" s="20" t="n">
-        <v>69328101</v>
+        <v>67697933</v>
       </c>
       <c r="AC21" s="20" t="n">
-        <v>67697933</v>
+        <v>60265047</v>
       </c>
       <c r="AD21" s="20" t="n">
-        <v>60265047</v>
+        <v>78973387</v>
       </c>
       <c r="AE21" s="20" t="n">
-        <v>78973387</v>
+        <v>77598724</v>
       </c>
       <c r="AF21" s="20" t="n">
-        <v>77598724</v>
+        <v>74030321</v>
       </c>
       <c r="AG21" s="20" t="n">
-        <v>74030321</v>
+        <v>41243841</v>
       </c>
       <c r="AH21" s="20" t="n">
-        <v>41243841</v>
+        <v>53568797</v>
       </c>
       <c r="AI21" s="20" t="n">
-        <v>53568797</v>
+        <v>44035422</v>
       </c>
       <c r="AJ21" s="20" t="n">
-        <v>44035422</v>
+        <v>66357761</v>
       </c>
       <c r="AK21" s="20" t="n">
-        <v>66357761</v>
+        <v>60974370</v>
       </c>
       <c r="AL21" s="20" t="n">
-        <v>60974370</v>
+        <v>73187888</v>
       </c>
       <c r="AM21" s="20" t="n">
-        <v>73187888</v>
+        <v>71598426</v>
       </c>
       <c r="AN21" s="20" t="n">
-        <v>71598426</v>
+        <v>76294200</v>
       </c>
       <c r="AO21" s="20" t="n">
-        <v>76294200</v>
+        <v>68379000</v>
       </c>
       <c r="AP21" s="20" t="n">
-        <v>68379000</v>
+        <v>70158637</v>
       </c>
       <c r="AQ21" s="20" t="n">
-        <v>70158637</v>
+        <v>7174606</v>
       </c>
       <c r="AR21" s="20" t="n">
-        <v>7174606</v>
+        <v>32503150</v>
       </c>
       <c r="AS21" s="20" t="n">
-        <v>32503150</v>
+        <v>33540472</v>
       </c>
       <c r="AT21" s="20" t="n">
-        <v>33540472</v>
+        <v>77378214</v>
       </c>
       <c r="AU21" s="20" t="n">
-        <v>77378214</v>
+        <v>79408761</v>
       </c>
       <c r="AV21" s="20" t="n">
-        <v>79408761</v>
+        <v>68601280</v>
       </c>
       <c r="AW21" s="20" t="n">
-        <v>68601280</v>
+        <v>74577000</v>
       </c>
       <c r="AX21" s="20" t="n">
-        <v>74577000</v>
+        <v>54793794</v>
       </c>
       <c r="AY21" s="20" t="n">
-        <v>54793794</v>
+        <v>33968706</v>
       </c>
       <c r="AZ21" s="20" t="n">
-        <v>33968706</v>
+        <v>51578893</v>
       </c>
       <c r="BA21" s="20" t="n">
-        <v>51578893</v>
+        <v>59716607</v>
       </c>
       <c r="BB21" s="20" t="n">
-        <v>59716607</v>
+        <v>35943895</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5268,8 +5268,8 @@
       <c r="T28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U28" s="13" t="s">
-        <v>58</v>
+      <c r="U28" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V28" s="13" t="n">
         <v>0</v>
@@ -5298,8 +5298,8 @@
       <c r="AD28" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE28" s="13" t="n">
-        <v>0</v>
+      <c r="AE28" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF28" s="13" t="s">
         <v>58</v>
@@ -5328,8 +5328,8 @@
       <c r="AN28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO28" s="13" t="s">
-        <v>58</v>
+      <c r="AO28" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP28" s="13" t="n">
         <v>0</v>
@@ -5505,11 +5505,11 @@
       <c r="AT29" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AU29" s="16" t="s">
-        <v>58</v>
+      <c r="AU29" s="16" t="n">
+        <v>9985380</v>
       </c>
       <c r="AV29" s="16" t="n">
-        <v>9985380</v>
+        <v>0</v>
       </c>
       <c r="AW29" s="16" t="n">
         <v>0</v>
@@ -5524,10 +5524,10 @@
         <v>0</v>
       </c>
       <c r="BA29" s="16" t="n">
-        <v>0</v>
+        <v>64120</v>
       </c>
       <c r="BB29" s="16" t="n">
-        <v>64120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5586,107 +5586,107 @@
       <c r="T30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U30" s="13" t="s">
-        <v>58</v>
+      <c r="U30" s="13" t="n">
+        <v>27620980</v>
       </c>
       <c r="V30" s="13" t="n">
-        <v>27620980</v>
+        <v>25151380</v>
       </c>
       <c r="W30" s="13" t="n">
-        <v>25151380</v>
+        <v>39111740</v>
       </c>
       <c r="X30" s="13" t="n">
-        <v>39111740</v>
+        <v>34320140</v>
       </c>
       <c r="Y30" s="13" t="n">
-        <v>34320140</v>
+        <v>33466260</v>
       </c>
       <c r="Z30" s="13" t="n">
-        <v>33466260</v>
+        <v>29536940</v>
       </c>
       <c r="AA30" s="13" t="n">
-        <v>29536940</v>
+        <v>22677020</v>
       </c>
       <c r="AB30" s="13" t="n">
-        <v>22677020</v>
+        <v>20351700</v>
       </c>
       <c r="AC30" s="13" t="n">
-        <v>20351700</v>
+        <v>20269220</v>
       </c>
       <c r="AD30" s="13" t="n">
-        <v>20269220</v>
+        <v>22200500</v>
       </c>
       <c r="AE30" s="13" t="n">
-        <v>22200500</v>
+        <v>29468000</v>
       </c>
       <c r="AF30" s="13" t="n">
-        <v>29468000</v>
+        <v>22645600</v>
       </c>
       <c r="AG30" s="13" t="n">
-        <v>22645600</v>
+        <v>15682320</v>
       </c>
       <c r="AH30" s="13" t="n">
-        <v>15682320</v>
+        <v>15884900</v>
       </c>
       <c r="AI30" s="13" t="n">
-        <v>15884900</v>
+        <v>14057041</v>
       </c>
       <c r="AJ30" s="13" t="n">
-        <v>14057041</v>
+        <v>27135480</v>
       </c>
       <c r="AK30" s="13" t="n">
-        <v>27135480</v>
+        <v>28417700</v>
       </c>
       <c r="AL30" s="13" t="n">
-        <v>28417700</v>
+        <v>30375040</v>
       </c>
       <c r="AM30" s="13" t="n">
-        <v>30375040</v>
+        <v>30630580</v>
       </c>
       <c r="AN30" s="13" t="n">
-        <v>30630580</v>
+        <v>24241440</v>
       </c>
       <c r="AO30" s="13" t="n">
-        <v>24241440</v>
+        <v>31235053</v>
       </c>
       <c r="AP30" s="13" t="n">
-        <v>31235053</v>
+        <v>20930660</v>
       </c>
       <c r="AQ30" s="13" t="n">
-        <v>20930660</v>
+        <v>20959540</v>
       </c>
       <c r="AR30" s="13" t="n">
-        <v>20959540</v>
+        <v>21310800</v>
       </c>
       <c r="AS30" s="13" t="n">
-        <v>21310800</v>
+        <v>20451540</v>
       </c>
       <c r="AT30" s="13" t="n">
-        <v>20451540</v>
+        <v>19595100</v>
       </c>
       <c r="AU30" s="13" t="n">
-        <v>19595100</v>
+        <v>24475420</v>
       </c>
       <c r="AV30" s="13" t="n">
-        <v>24475420</v>
+        <v>20447500</v>
       </c>
       <c r="AW30" s="13" t="n">
-        <v>20447500</v>
+        <v>32581560</v>
       </c>
       <c r="AX30" s="13" t="n">
-        <v>32581560</v>
+        <v>26475221</v>
       </c>
       <c r="AY30" s="13" t="n">
-        <v>26475221</v>
+        <v>14138100</v>
       </c>
       <c r="AZ30" s="13" t="n">
-        <v>14138100</v>
+        <v>19229520</v>
       </c>
       <c r="BA30" s="13" t="n">
-        <v>19229520</v>
+        <v>25004520</v>
       </c>
       <c r="BB30" s="13" t="n">
-        <v>25004520</v>
+        <v>18554000</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5745,107 +5745,107 @@
       <c r="T31" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U31" s="16" t="s">
-        <v>58</v>
+      <c r="U31" s="16" t="n">
+        <v>2096920</v>
       </c>
       <c r="V31" s="16" t="n">
-        <v>2096920</v>
+        <v>2006600</v>
       </c>
       <c r="W31" s="16" t="n">
-        <v>2006600</v>
+        <v>1346200</v>
       </c>
       <c r="X31" s="16" t="n">
-        <v>1346200</v>
+        <v>965000</v>
       </c>
       <c r="Y31" s="16" t="n">
-        <v>965000</v>
+        <v>1269280</v>
       </c>
       <c r="Z31" s="16" t="n">
-        <v>1269280</v>
+        <v>3569160</v>
       </c>
       <c r="AA31" s="16" t="n">
-        <v>3569160</v>
+        <v>1714660</v>
       </c>
       <c r="AB31" s="16" t="n">
-        <v>1714660</v>
+        <v>1180400</v>
       </c>
       <c r="AC31" s="16" t="n">
-        <v>1180400</v>
+        <v>1190420</v>
       </c>
       <c r="AD31" s="16" t="n">
-        <v>1190420</v>
+        <v>1220080</v>
       </c>
       <c r="AE31" s="16" t="n">
-        <v>1220080</v>
+        <v>704420</v>
       </c>
       <c r="AF31" s="16" t="n">
-        <v>704420</v>
+        <v>1633280</v>
       </c>
       <c r="AG31" s="16" t="n">
-        <v>1633280</v>
+        <v>2218540</v>
       </c>
       <c r="AH31" s="16" t="n">
-        <v>2218540</v>
+        <v>1200580</v>
       </c>
       <c r="AI31" s="16" t="n">
-        <v>1200580</v>
+        <v>1242240</v>
       </c>
       <c r="AJ31" s="16" t="n">
-        <v>1242240</v>
+        <v>2257960</v>
       </c>
       <c r="AK31" s="16" t="n">
-        <v>2257960</v>
+        <v>3441680</v>
       </c>
       <c r="AL31" s="16" t="n">
-        <v>3441680</v>
+        <v>1833740</v>
       </c>
       <c r="AM31" s="16" t="n">
-        <v>1833740</v>
+        <v>740020</v>
       </c>
       <c r="AN31" s="16" t="n">
-        <v>740020</v>
+        <v>1553520</v>
       </c>
       <c r="AO31" s="16" t="n">
-        <v>1553520</v>
+        <v>1638600</v>
       </c>
       <c r="AP31" s="16" t="n">
-        <v>1638600</v>
+        <v>527320</v>
       </c>
       <c r="AQ31" s="16" t="n">
-        <v>527320</v>
+        <v>2428820</v>
       </c>
       <c r="AR31" s="16" t="n">
-        <v>2428820</v>
+        <v>2767360</v>
       </c>
       <c r="AS31" s="16" t="n">
-        <v>2767360</v>
+        <v>1988060</v>
       </c>
       <c r="AT31" s="16" t="n">
-        <v>1988060</v>
+        <v>1203340</v>
       </c>
       <c r="AU31" s="16" t="n">
-        <v>1203340</v>
+        <v>1430840</v>
       </c>
       <c r="AV31" s="16" t="n">
-        <v>1430840</v>
+        <v>790480</v>
       </c>
       <c r="AW31" s="16" t="n">
-        <v>790480</v>
+        <v>1539000</v>
       </c>
       <c r="AX31" s="16" t="n">
-        <v>1539000</v>
+        <v>1499280</v>
       </c>
       <c r="AY31" s="16" t="n">
-        <v>1499280</v>
+        <v>612300</v>
       </c>
       <c r="AZ31" s="16" t="n">
-        <v>612300</v>
+        <v>535000</v>
       </c>
       <c r="BA31" s="16" t="n">
-        <v>535000</v>
+        <v>736700</v>
       </c>
       <c r="BB31" s="16" t="n">
-        <v>736700</v>
+        <v>1142880</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5903,106 +5903,106 @@
         <v>0</v>
       </c>
       <c r="U32" s="18" t="n">
-        <v>0</v>
+        <v>29717900</v>
       </c>
       <c r="V32" s="18" t="n">
-        <v>29717900</v>
+        <v>27157980</v>
       </c>
       <c r="W32" s="18" t="n">
-        <v>27157980</v>
+        <v>40457940</v>
       </c>
       <c r="X32" s="18" t="n">
-        <v>40457940</v>
+        <v>35285140</v>
       </c>
       <c r="Y32" s="18" t="n">
-        <v>35285140</v>
+        <v>34735540</v>
       </c>
       <c r="Z32" s="18" t="n">
-        <v>34735540</v>
+        <v>33106100</v>
       </c>
       <c r="AA32" s="18" t="n">
-        <v>33106100</v>
+        <v>24391680</v>
       </c>
       <c r="AB32" s="18" t="n">
-        <v>24391680</v>
+        <v>21532100</v>
       </c>
       <c r="AC32" s="18" t="n">
-        <v>21532100</v>
+        <v>21459640</v>
       </c>
       <c r="AD32" s="18" t="n">
-        <v>21459640</v>
+        <v>23420580</v>
       </c>
       <c r="AE32" s="18" t="n">
-        <v>23420580</v>
+        <v>30172420</v>
       </c>
       <c r="AF32" s="18" t="n">
-        <v>30172420</v>
+        <v>24278880</v>
       </c>
       <c r="AG32" s="18" t="n">
-        <v>24278880</v>
+        <v>17900860</v>
       </c>
       <c r="AH32" s="18" t="n">
-        <v>17900860</v>
+        <v>17085480</v>
       </c>
       <c r="AI32" s="18" t="n">
-        <v>17085480</v>
+        <v>15299281</v>
       </c>
       <c r="AJ32" s="18" t="n">
-        <v>15299281</v>
+        <v>29393440</v>
       </c>
       <c r="AK32" s="18" t="n">
-        <v>29393440</v>
+        <v>31859380</v>
       </c>
       <c r="AL32" s="18" t="n">
-        <v>31859380</v>
+        <v>32208780</v>
       </c>
       <c r="AM32" s="18" t="n">
-        <v>32208780</v>
+        <v>31370600</v>
       </c>
       <c r="AN32" s="18" t="n">
-        <v>31370600</v>
+        <v>25794960</v>
       </c>
       <c r="AO32" s="18" t="n">
-        <v>25794960</v>
+        <v>32873653</v>
       </c>
       <c r="AP32" s="18" t="n">
-        <v>32873653</v>
+        <v>21457980</v>
       </c>
       <c r="AQ32" s="18" t="n">
-        <v>21457980</v>
+        <v>23388360</v>
       </c>
       <c r="AR32" s="18" t="n">
-        <v>23388360</v>
+        <v>24078160</v>
       </c>
       <c r="AS32" s="18" t="n">
-        <v>24078160</v>
+        <v>22439600</v>
       </c>
       <c r="AT32" s="18" t="n">
-        <v>22439600</v>
+        <v>20798440</v>
       </c>
       <c r="AU32" s="18" t="n">
-        <v>20798440</v>
+        <v>35891640</v>
       </c>
       <c r="AV32" s="18" t="n">
-        <v>35891640</v>
+        <v>21237980</v>
       </c>
       <c r="AW32" s="18" t="n">
-        <v>21237980</v>
+        <v>34120560</v>
       </c>
       <c r="AX32" s="18" t="n">
-        <v>34120560</v>
+        <v>27974501</v>
       </c>
       <c r="AY32" s="18" t="n">
-        <v>27974501</v>
+        <v>14750400</v>
       </c>
       <c r="AZ32" s="18" t="n">
-        <v>14750400</v>
+        <v>19764520</v>
       </c>
       <c r="BA32" s="18" t="n">
-        <v>19764520</v>
+        <v>25805340</v>
       </c>
       <c r="BB32" s="18" t="n">
-        <v>25805340</v>
+        <v>19696880</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6118,107 +6118,107 @@
       <c r="T34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U34" s="13" t="s">
-        <v>58</v>
+      <c r="U34" s="13" t="n">
+        <v>36228460</v>
       </c>
       <c r="V34" s="13" t="n">
-        <v>36228460</v>
+        <v>21554200</v>
       </c>
       <c r="W34" s="13" t="n">
-        <v>21554200</v>
+        <v>29502000</v>
       </c>
       <c r="X34" s="13" t="n">
-        <v>29502000</v>
+        <v>30961300</v>
       </c>
       <c r="Y34" s="13" t="n">
-        <v>30961300</v>
+        <v>40933220</v>
       </c>
       <c r="Z34" s="13" t="n">
-        <v>40933220</v>
+        <v>53842620</v>
       </c>
       <c r="AA34" s="13" t="n">
-        <v>53842620</v>
+        <v>52820140</v>
       </c>
       <c r="AB34" s="13" t="n">
-        <v>52820140</v>
+        <v>43493900</v>
       </c>
       <c r="AC34" s="13" t="n">
-        <v>43493900</v>
+        <v>38939680</v>
       </c>
       <c r="AD34" s="13" t="n">
-        <v>38939680</v>
+        <v>54566800</v>
       </c>
       <c r="AE34" s="13" t="n">
-        <v>54566800</v>
+        <v>43498140</v>
       </c>
       <c r="AF34" s="13" t="n">
-        <v>43498140</v>
+        <v>59397440</v>
       </c>
       <c r="AG34" s="13" t="n">
-        <v>59397440</v>
+        <v>31959720</v>
       </c>
       <c r="AH34" s="13" t="n">
-        <v>31959720</v>
+        <v>21849640</v>
       </c>
       <c r="AI34" s="13" t="n">
-        <v>21849640</v>
+        <v>28490080</v>
       </c>
       <c r="AJ34" s="13" t="n">
-        <v>28490080</v>
+        <v>33990280</v>
       </c>
       <c r="AK34" s="13" t="n">
-        <v>33990280</v>
+        <v>39066660</v>
       </c>
       <c r="AL34" s="13" t="n">
-        <v>39066660</v>
+        <v>34655800</v>
       </c>
       <c r="AM34" s="13" t="n">
-        <v>34655800</v>
+        <v>35255240</v>
       </c>
       <c r="AN34" s="13" t="n">
-        <v>35255240</v>
+        <v>63088420</v>
       </c>
       <c r="AO34" s="13" t="n">
-        <v>63088420</v>
+        <v>33280120</v>
       </c>
       <c r="AP34" s="13" t="n">
-        <v>33280120</v>
+        <v>18778340</v>
       </c>
       <c r="AQ34" s="13" t="n">
-        <v>18778340</v>
+        <v>17800560</v>
       </c>
       <c r="AR34" s="13" t="n">
-        <v>17800560</v>
+        <v>24058360</v>
       </c>
       <c r="AS34" s="13" t="n">
-        <v>24058360</v>
+        <v>22012680</v>
       </c>
       <c r="AT34" s="13" t="n">
-        <v>22012680</v>
+        <v>40703660</v>
       </c>
       <c r="AU34" s="13" t="n">
-        <v>40703660</v>
+        <v>51187580</v>
       </c>
       <c r="AV34" s="13" t="n">
-        <v>51187580</v>
+        <v>30386660</v>
       </c>
       <c r="AW34" s="13" t="n">
-        <v>30386660</v>
+        <v>43474720</v>
       </c>
       <c r="AX34" s="13" t="n">
-        <v>43474720</v>
+        <v>39605280</v>
       </c>
       <c r="AY34" s="13" t="n">
-        <v>39605280</v>
+        <v>31207320</v>
       </c>
       <c r="AZ34" s="13" t="n">
-        <v>31207320</v>
+        <v>29414780</v>
       </c>
       <c r="BA34" s="13" t="n">
-        <v>29414780</v>
+        <v>36683600</v>
       </c>
       <c r="BB34" s="13" t="n">
-        <v>36683600</v>
+        <v>12537040</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6276,106 +6276,106 @@
         <v>0</v>
       </c>
       <c r="U35" s="20" t="n">
-        <v>0</v>
+        <v>36228460</v>
       </c>
       <c r="V35" s="20" t="n">
-        <v>36228460</v>
+        <v>21554200</v>
       </c>
       <c r="W35" s="20" t="n">
-        <v>21554200</v>
+        <v>29502000</v>
       </c>
       <c r="X35" s="20" t="n">
-        <v>29502000</v>
+        <v>30961300</v>
       </c>
       <c r="Y35" s="20" t="n">
-        <v>30961300</v>
+        <v>40933220</v>
       </c>
       <c r="Z35" s="20" t="n">
-        <v>40933220</v>
+        <v>53842620</v>
       </c>
       <c r="AA35" s="20" t="n">
-        <v>53842620</v>
+        <v>52820140</v>
       </c>
       <c r="AB35" s="20" t="n">
-        <v>52820140</v>
+        <v>43493900</v>
       </c>
       <c r="AC35" s="20" t="n">
-        <v>43493900</v>
+        <v>38939680</v>
       </c>
       <c r="AD35" s="20" t="n">
-        <v>38939680</v>
+        <v>54566800</v>
       </c>
       <c r="AE35" s="20" t="n">
-        <v>54566800</v>
+        <v>43498140</v>
       </c>
       <c r="AF35" s="20" t="n">
-        <v>43498140</v>
+        <v>59397440</v>
       </c>
       <c r="AG35" s="20" t="n">
-        <v>59397440</v>
+        <v>31959720</v>
       </c>
       <c r="AH35" s="20" t="n">
-        <v>31959720</v>
+        <v>21849640</v>
       </c>
       <c r="AI35" s="20" t="n">
-        <v>21849640</v>
+        <v>28490080</v>
       </c>
       <c r="AJ35" s="20" t="n">
-        <v>28490080</v>
+        <v>33990280</v>
       </c>
       <c r="AK35" s="20" t="n">
-        <v>33990280</v>
+        <v>39066660</v>
       </c>
       <c r="AL35" s="20" t="n">
-        <v>39066660</v>
+        <v>34655800</v>
       </c>
       <c r="AM35" s="20" t="n">
-        <v>34655800</v>
+        <v>35255240</v>
       </c>
       <c r="AN35" s="20" t="n">
-        <v>35255240</v>
+        <v>63088420</v>
       </c>
       <c r="AO35" s="20" t="n">
-        <v>63088420</v>
+        <v>33280120</v>
       </c>
       <c r="AP35" s="20" t="n">
-        <v>33280120</v>
+        <v>18778340</v>
       </c>
       <c r="AQ35" s="20" t="n">
-        <v>18778340</v>
+        <v>17800560</v>
       </c>
       <c r="AR35" s="20" t="n">
-        <v>17800560</v>
+        <v>24058360</v>
       </c>
       <c r="AS35" s="20" t="n">
-        <v>24058360</v>
+        <v>22012680</v>
       </c>
       <c r="AT35" s="20" t="n">
-        <v>22012680</v>
+        <v>40703660</v>
       </c>
       <c r="AU35" s="20" t="n">
-        <v>40703660</v>
+        <v>51187580</v>
       </c>
       <c r="AV35" s="20" t="n">
-        <v>51187580</v>
+        <v>30386660</v>
       </c>
       <c r="AW35" s="20" t="n">
-        <v>30386660</v>
+        <v>43474720</v>
       </c>
       <c r="AX35" s="20" t="n">
-        <v>43474720</v>
+        <v>39605280</v>
       </c>
       <c r="AY35" s="20" t="n">
-        <v>39605280</v>
+        <v>31207320</v>
       </c>
       <c r="AZ35" s="20" t="n">
-        <v>31207320</v>
+        <v>29414780</v>
       </c>
       <c r="BA35" s="20" t="n">
-        <v>29414780</v>
+        <v>36683600</v>
       </c>
       <c r="BB35" s="20" t="n">
-        <v>36683600</v>
+        <v>12537040</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6489,8 +6489,8 @@
       <c r="T37" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U37" s="18" t="s">
-        <v>58</v>
+      <c r="U37" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V37" s="18" t="n">
         <v>0</v>
@@ -6705,104 +6705,104 @@
       <c r="T39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U39" s="13" t="s">
-        <v>58</v>
+      <c r="U39" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V39" s="13" t="n">
-        <v>0</v>
+        <v>-37140</v>
       </c>
       <c r="W39" s="13" t="n">
-        <v>-37140</v>
+        <v>-48220</v>
       </c>
       <c r="X39" s="13" t="n">
-        <v>-48220</v>
+        <v>-22180</v>
       </c>
       <c r="Y39" s="13" t="n">
+        <v>-32920</v>
+      </c>
+      <c r="Z39" s="13" t="n">
+        <v>-44240</v>
+      </c>
+      <c r="AA39" s="13" t="n">
+        <v>-109940</v>
+      </c>
+      <c r="AB39" s="13" t="n">
+        <v>-3740</v>
+      </c>
+      <c r="AC39" s="13" t="n">
+        <v>-5480</v>
+      </c>
+      <c r="AD39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="13" t="n">
         <v>-22180</v>
       </c>
-      <c r="Z39" s="13" t="n">
-        <v>-32920</v>
-      </c>
-      <c r="AA39" s="13" t="n">
-        <v>-44240</v>
-      </c>
-      <c r="AB39" s="13" t="n">
-        <v>-109940</v>
-      </c>
-      <c r="AC39" s="13" t="n">
-        <v>-3740</v>
-      </c>
-      <c r="AD39" s="13" t="n">
-        <v>-5480</v>
-      </c>
-      <c r="AE39" s="13" t="n">
-        <v>0</v>
-      </c>
       <c r="AF39" s="13" t="n">
-        <v>-22180</v>
+        <v>-128100</v>
       </c>
       <c r="AG39" s="13" t="n">
-        <v>-128100</v>
-      </c>
-      <c r="AH39" s="13" t="n">
         <v>-25620</v>
       </c>
+      <c r="AH39" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ39" s="13" t="s">
-        <v>58</v>
+      <c r="AJ39" s="13" t="n">
+        <v>-7900</v>
       </c>
       <c r="AK39" s="13" t="n">
-        <v>-7900</v>
+        <v>-60700</v>
       </c>
       <c r="AL39" s="13" t="n">
-        <v>-60700</v>
+        <v>-61520</v>
       </c>
       <c r="AM39" s="13" t="n">
-        <v>-61520</v>
+        <v>-25780</v>
       </c>
       <c r="AN39" s="13" t="n">
-        <v>-25780</v>
+        <v>-79660</v>
       </c>
       <c r="AO39" s="13" t="n">
-        <v>-79660</v>
+        <v>-14460</v>
       </c>
       <c r="AP39" s="13" t="n">
-        <v>-14460</v>
+        <v>-17760</v>
       </c>
       <c r="AQ39" s="13" t="n">
-        <v>-17760</v>
+        <v>-13960</v>
       </c>
       <c r="AR39" s="13" t="n">
-        <v>-13960</v>
+        <v>-72420</v>
       </c>
       <c r="AS39" s="13" t="n">
-        <v>-72420</v>
+        <v>-37880</v>
       </c>
       <c r="AT39" s="13" t="n">
-        <v>-37880</v>
+        <v>-122320</v>
       </c>
       <c r="AU39" s="13" t="n">
-        <v>-122320</v>
+        <v>-36940</v>
       </c>
       <c r="AV39" s="13" t="n">
-        <v>-36940</v>
+        <v>-309780</v>
       </c>
       <c r="AW39" s="13" t="n">
-        <v>-309780</v>
+        <v>-339640</v>
       </c>
       <c r="AX39" s="13" t="n">
-        <v>-339640</v>
+        <v>-728421</v>
       </c>
       <c r="AY39" s="13" t="n">
-        <v>-728421</v>
+        <v>-11500</v>
       </c>
       <c r="AZ39" s="13" t="n">
-        <v>-11500</v>
-      </c>
-      <c r="BA39" s="13" t="n">
         <v>-67120</v>
+      </c>
+      <c r="BA39" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB39" s="13" t="s">
         <v>58</v>
@@ -6862,104 +6862,104 @@
       <c r="T40" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U40" s="20" t="s">
-        <v>58</v>
+      <c r="U40" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V40" s="20" t="n">
-        <v>0</v>
+        <v>-37140</v>
       </c>
       <c r="W40" s="20" t="n">
-        <v>-37140</v>
+        <v>-48220</v>
       </c>
       <c r="X40" s="20" t="n">
-        <v>-48220</v>
+        <v>-22180</v>
       </c>
       <c r="Y40" s="20" t="n">
+        <v>-32920</v>
+      </c>
+      <c r="Z40" s="20" t="n">
+        <v>-44240</v>
+      </c>
+      <c r="AA40" s="20" t="n">
+        <v>-109940</v>
+      </c>
+      <c r="AB40" s="20" t="n">
+        <v>-3740</v>
+      </c>
+      <c r="AC40" s="20" t="n">
+        <v>-5480</v>
+      </c>
+      <c r="AD40" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="20" t="n">
         <v>-22180</v>
       </c>
-      <c r="Z40" s="20" t="n">
-        <v>-32920</v>
-      </c>
-      <c r="AA40" s="20" t="n">
-        <v>-44240</v>
-      </c>
-      <c r="AB40" s="20" t="n">
-        <v>-109940</v>
-      </c>
-      <c r="AC40" s="20" t="n">
-        <v>-3740</v>
-      </c>
-      <c r="AD40" s="20" t="n">
-        <v>-5480</v>
-      </c>
-      <c r="AE40" s="20" t="n">
-        <v>0</v>
-      </c>
       <c r="AF40" s="20" t="n">
-        <v>-22180</v>
+        <v>-128100</v>
       </c>
       <c r="AG40" s="20" t="n">
-        <v>-128100</v>
+        <v>-25620</v>
       </c>
       <c r="AH40" s="20" t="n">
-        <v>-25620</v>
+        <v>0</v>
       </c>
       <c r="AI40" s="20" t="n">
         <v>0</v>
       </c>
       <c r="AJ40" s="20" t="n">
-        <v>0</v>
+        <v>-7900</v>
       </c>
       <c r="AK40" s="20" t="n">
-        <v>-7900</v>
+        <v>-60700</v>
       </c>
       <c r="AL40" s="20" t="n">
-        <v>-60700</v>
+        <v>-61520</v>
       </c>
       <c r="AM40" s="20" t="n">
-        <v>-61520</v>
+        <v>-25780</v>
       </c>
       <c r="AN40" s="20" t="n">
-        <v>-25780</v>
+        <v>-79660</v>
       </c>
       <c r="AO40" s="20" t="n">
-        <v>-79660</v>
+        <v>-14460</v>
       </c>
       <c r="AP40" s="20" t="n">
-        <v>-14460</v>
+        <v>-17760</v>
       </c>
       <c r="AQ40" s="20" t="n">
-        <v>-17760</v>
+        <v>-13960</v>
       </c>
       <c r="AR40" s="20" t="n">
-        <v>-13960</v>
+        <v>-72420</v>
       </c>
       <c r="AS40" s="20" t="n">
-        <v>-72420</v>
+        <v>-37880</v>
       </c>
       <c r="AT40" s="20" t="n">
-        <v>-37880</v>
+        <v>-122320</v>
       </c>
       <c r="AU40" s="20" t="n">
-        <v>-122320</v>
+        <v>-36940</v>
       </c>
       <c r="AV40" s="20" t="n">
-        <v>-36940</v>
+        <v>-309780</v>
       </c>
       <c r="AW40" s="20" t="n">
-        <v>-309780</v>
+        <v>-339640</v>
       </c>
       <c r="AX40" s="20" t="n">
-        <v>-339640</v>
+        <v>-728421</v>
       </c>
       <c r="AY40" s="20" t="n">
-        <v>-728421</v>
+        <v>-11500</v>
       </c>
       <c r="AZ40" s="20" t="n">
-        <v>-11500</v>
+        <v>-67120</v>
       </c>
       <c r="BA40" s="20" t="n">
-        <v>-67120</v>
+        <v>0</v>
       </c>
       <c r="BB40" s="20" t="n">
         <v>0</v>
@@ -7020,106 +7020,106 @@
         <v>0</v>
       </c>
       <c r="U41" s="18" t="n">
-        <v>0</v>
+        <v>65946360</v>
       </c>
       <c r="V41" s="18" t="n">
-        <v>65946360</v>
+        <v>48675040</v>
       </c>
       <c r="W41" s="18" t="n">
-        <v>48675040</v>
+        <v>69911720</v>
       </c>
       <c r="X41" s="18" t="n">
-        <v>69911720</v>
+        <v>66224260</v>
       </c>
       <c r="Y41" s="18" t="n">
-        <v>66224260</v>
+        <v>75635840</v>
       </c>
       <c r="Z41" s="18" t="n">
-        <v>75635840</v>
+        <v>86904480</v>
       </c>
       <c r="AA41" s="18" t="n">
-        <v>86904480</v>
+        <v>77101880</v>
       </c>
       <c r="AB41" s="18" t="n">
-        <v>77101880</v>
+        <v>65022260</v>
       </c>
       <c r="AC41" s="18" t="n">
-        <v>65022260</v>
+        <v>60393840</v>
       </c>
       <c r="AD41" s="18" t="n">
-        <v>60393840</v>
+        <v>77987380</v>
       </c>
       <c r="AE41" s="18" t="n">
-        <v>77987380</v>
+        <v>73648380</v>
       </c>
       <c r="AF41" s="18" t="n">
-        <v>73648380</v>
+        <v>83548220</v>
       </c>
       <c r="AG41" s="18" t="n">
-        <v>83548220</v>
+        <v>49834960</v>
       </c>
       <c r="AH41" s="18" t="n">
-        <v>49834960</v>
+        <v>38935120</v>
       </c>
       <c r="AI41" s="18" t="n">
-        <v>38935120</v>
+        <v>43789361</v>
       </c>
       <c r="AJ41" s="18" t="n">
-        <v>43789361</v>
+        <v>63375820</v>
       </c>
       <c r="AK41" s="18" t="n">
-        <v>63375820</v>
+        <v>70865340</v>
       </c>
       <c r="AL41" s="18" t="n">
-        <v>70865340</v>
+        <v>66803060</v>
       </c>
       <c r="AM41" s="18" t="n">
-        <v>66803060</v>
+        <v>66600060</v>
       </c>
       <c r="AN41" s="18" t="n">
-        <v>66600060</v>
+        <v>88803720</v>
       </c>
       <c r="AO41" s="18" t="n">
-        <v>88803720</v>
+        <v>66139313</v>
       </c>
       <c r="AP41" s="18" t="n">
-        <v>66139313</v>
+        <v>40218560</v>
       </c>
       <c r="AQ41" s="18" t="n">
-        <v>40218560</v>
+        <v>41174960</v>
       </c>
       <c r="AR41" s="18" t="n">
-        <v>41174960</v>
+        <v>48064100</v>
       </c>
       <c r="AS41" s="18" t="n">
-        <v>48064100</v>
+        <v>44414400</v>
       </c>
       <c r="AT41" s="18" t="n">
-        <v>44414400</v>
+        <v>61379780</v>
       </c>
       <c r="AU41" s="18" t="n">
-        <v>61379780</v>
+        <v>87042280</v>
       </c>
       <c r="AV41" s="18" t="n">
-        <v>87042280</v>
+        <v>51314860</v>
       </c>
       <c r="AW41" s="18" t="n">
-        <v>51314860</v>
+        <v>77255640</v>
       </c>
       <c r="AX41" s="18" t="n">
-        <v>77255640</v>
+        <v>66851360</v>
       </c>
       <c r="AY41" s="18" t="n">
-        <v>66851360</v>
+        <v>45946220</v>
       </c>
       <c r="AZ41" s="18" t="n">
-        <v>45946220</v>
+        <v>49112180</v>
       </c>
       <c r="BA41" s="18" t="n">
-        <v>49112180</v>
+        <v>62488940</v>
       </c>
       <c r="BB41" s="18" t="n">
-        <v>62488940</v>
+        <v>32233920</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7612,8 +7612,8 @@
       <c r="T48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U48" s="13" t="s">
-        <v>58</v>
+      <c r="U48" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V48" s="13" t="n">
         <v>0</v>
@@ -7849,11 +7849,11 @@
       <c r="AT49" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AU49" s="16" t="s">
-        <v>58</v>
+      <c r="AU49" s="16" t="n">
+        <v>1302095</v>
       </c>
       <c r="AV49" s="16" t="n">
-        <v>1302095</v>
+        <v>0</v>
       </c>
       <c r="AW49" s="16" t="n">
         <v>0</v>
@@ -7868,10 +7868,10 @@
         <v>0</v>
       </c>
       <c r="BA49" s="16" t="n">
-        <v>0</v>
+        <v>12503</v>
       </c>
       <c r="BB49" s="16" t="n">
-        <v>12503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7930,107 +7930,107 @@
       <c r="T50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U50" s="13" t="s">
-        <v>58</v>
+      <c r="U50" s="13" t="n">
+        <v>2260044</v>
       </c>
       <c r="V50" s="13" t="n">
-        <v>2260044</v>
+        <v>2308218</v>
       </c>
       <c r="W50" s="13" t="n">
-        <v>2308218</v>
+        <v>3919532</v>
       </c>
       <c r="X50" s="13" t="n">
-        <v>3919532</v>
+        <v>4064410</v>
       </c>
       <c r="Y50" s="13" t="n">
-        <v>4064410</v>
+        <v>4155855</v>
       </c>
       <c r="Z50" s="13" t="n">
-        <v>4155855</v>
+        <v>3575634</v>
       </c>
       <c r="AA50" s="13" t="n">
-        <v>3575634</v>
+        <v>2810308</v>
       </c>
       <c r="AB50" s="13" t="n">
-        <v>2810308</v>
+        <v>2633842</v>
       </c>
       <c r="AC50" s="13" t="n">
-        <v>2633842</v>
+        <v>2771048</v>
       </c>
       <c r="AD50" s="13" t="n">
-        <v>2771048</v>
+        <v>3302198</v>
       </c>
       <c r="AE50" s="13" t="n">
-        <v>3302198</v>
+        <v>4663217</v>
       </c>
       <c r="AF50" s="13" t="n">
-        <v>4663217</v>
+        <v>3804144</v>
       </c>
       <c r="AG50" s="13" t="n">
-        <v>3804144</v>
+        <v>2691353</v>
       </c>
       <c r="AH50" s="13" t="n">
-        <v>2691353</v>
+        <v>2996737</v>
       </c>
       <c r="AI50" s="13" t="n">
-        <v>2996737</v>
+        <v>2584223</v>
       </c>
       <c r="AJ50" s="13" t="n">
-        <v>2584223</v>
+        <v>4835302</v>
       </c>
       <c r="AK50" s="13" t="n">
-        <v>4835302</v>
+        <v>5205918</v>
       </c>
       <c r="AL50" s="13" t="n">
-        <v>5205918</v>
+        <v>5690835</v>
       </c>
       <c r="AM50" s="13" t="n">
-        <v>5690835</v>
+        <v>5819584</v>
       </c>
       <c r="AN50" s="13" t="n">
-        <v>5819584</v>
+        <v>4285600</v>
       </c>
       <c r="AO50" s="13" t="n">
-        <v>4285600</v>
+        <v>5742157</v>
       </c>
       <c r="AP50" s="13" t="n">
-        <v>5742157</v>
+        <v>4329272</v>
       </c>
       <c r="AQ50" s="13" t="n">
-        <v>4329272</v>
+        <v>4188213</v>
       </c>
       <c r="AR50" s="13" t="n">
-        <v>4188213</v>
+        <v>4638394</v>
       </c>
       <c r="AS50" s="13" t="n">
-        <v>4638394</v>
+        <v>4624919</v>
       </c>
       <c r="AT50" s="13" t="n">
-        <v>4624919</v>
+        <v>4332807</v>
       </c>
       <c r="AU50" s="13" t="n">
-        <v>4332807</v>
+        <v>4633111</v>
       </c>
       <c r="AV50" s="13" t="n">
-        <v>4633111</v>
+        <v>4022971</v>
       </c>
       <c r="AW50" s="13" t="n">
-        <v>4022971</v>
+        <v>6184105</v>
       </c>
       <c r="AX50" s="13" t="n">
-        <v>6184105</v>
+        <v>5254402</v>
       </c>
       <c r="AY50" s="13" t="n">
-        <v>5254402</v>
+        <v>3375807</v>
       </c>
       <c r="AZ50" s="13" t="n">
-        <v>3375807</v>
+        <v>5220998</v>
       </c>
       <c r="BA50" s="13" t="n">
-        <v>5220998</v>
+        <v>7062716</v>
       </c>
       <c r="BB50" s="13" t="n">
-        <v>7062716</v>
+        <v>5494084</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8089,107 +8089,107 @@
       <c r="T51" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U51" s="16" t="s">
-        <v>58</v>
+      <c r="U51" s="16" t="n">
+        <v>10854</v>
       </c>
       <c r="V51" s="16" t="n">
-        <v>10854</v>
+        <v>99059</v>
       </c>
       <c r="W51" s="16" t="n">
-        <v>99059</v>
+        <v>26883</v>
       </c>
       <c r="X51" s="16" t="n">
-        <v>26883</v>
+        <v>31848</v>
       </c>
       <c r="Y51" s="16" t="n">
-        <v>31848</v>
+        <v>105248</v>
       </c>
       <c r="Z51" s="16" t="n">
-        <v>105248</v>
+        <v>158031</v>
       </c>
       <c r="AA51" s="16" t="n">
-        <v>158031</v>
+        <v>106165</v>
       </c>
       <c r="AB51" s="16" t="n">
-        <v>106165</v>
+        <v>99265</v>
       </c>
       <c r="AC51" s="16" t="n">
-        <v>99265</v>
+        <v>77423</v>
       </c>
       <c r="AD51" s="16" t="n">
-        <v>77423</v>
+        <v>70036</v>
       </c>
       <c r="AE51" s="16" t="n">
-        <v>70036</v>
+        <v>42319</v>
       </c>
       <c r="AF51" s="16" t="n">
-        <v>42319</v>
+        <v>73328</v>
       </c>
       <c r="AG51" s="16" t="n">
-        <v>73328</v>
+        <v>106965</v>
       </c>
       <c r="AH51" s="16" t="n">
-        <v>106965</v>
+        <v>55013</v>
       </c>
       <c r="AI51" s="16" t="n">
-        <v>55013</v>
+        <v>75093</v>
       </c>
       <c r="AJ51" s="16" t="n">
-        <v>75093</v>
+        <v>188811</v>
       </c>
       <c r="AK51" s="16" t="n">
-        <v>188811</v>
+        <v>328203</v>
       </c>
       <c r="AL51" s="16" t="n">
-        <v>328203</v>
+        <v>185190</v>
       </c>
       <c r="AM51" s="16" t="n">
-        <v>185190</v>
+        <v>65942</v>
       </c>
       <c r="AN51" s="16" t="n">
-        <v>65942</v>
+        <v>164356</v>
       </c>
       <c r="AO51" s="16" t="n">
-        <v>164356</v>
+        <v>182044</v>
       </c>
       <c r="AP51" s="16" t="n">
-        <v>182044</v>
+        <v>53217</v>
       </c>
       <c r="AQ51" s="16" t="n">
-        <v>53217</v>
+        <v>80413</v>
       </c>
       <c r="AR51" s="16" t="n">
-        <v>80413</v>
+        <v>137105</v>
       </c>
       <c r="AS51" s="16" t="n">
-        <v>137105</v>
+        <v>66414</v>
       </c>
       <c r="AT51" s="16" t="n">
-        <v>66414</v>
+        <v>64389</v>
       </c>
       <c r="AU51" s="16" t="n">
-        <v>64389</v>
+        <v>95810</v>
       </c>
       <c r="AV51" s="16" t="n">
-        <v>95810</v>
+        <v>59891</v>
       </c>
       <c r="AW51" s="16" t="n">
-        <v>59891</v>
+        <v>104561</v>
       </c>
       <c r="AX51" s="16" t="n">
-        <v>104561</v>
+        <v>113608</v>
       </c>
       <c r="AY51" s="16" t="n">
-        <v>113608</v>
+        <v>67996</v>
       </c>
       <c r="AZ51" s="16" t="n">
-        <v>67996</v>
+        <v>77233</v>
       </c>
       <c r="BA51" s="16" t="n">
-        <v>77233</v>
+        <v>114504</v>
       </c>
       <c r="BB51" s="16" t="n">
-        <v>114504</v>
+        <v>133033</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8247,106 +8247,106 @@
         <v>0</v>
       </c>
       <c r="U52" s="18" t="n">
-        <v>0</v>
+        <v>2270898</v>
       </c>
       <c r="V52" s="18" t="n">
-        <v>2270898</v>
+        <v>2407277</v>
       </c>
       <c r="W52" s="18" t="n">
-        <v>2407277</v>
+        <v>3946415</v>
       </c>
       <c r="X52" s="18" t="n">
-        <v>3946415</v>
+        <v>4096258</v>
       </c>
       <c r="Y52" s="18" t="n">
-        <v>4096258</v>
+        <v>4261103</v>
       </c>
       <c r="Z52" s="18" t="n">
-        <v>4261103</v>
+        <v>3733665</v>
       </c>
       <c r="AA52" s="18" t="n">
-        <v>3733665</v>
+        <v>2916473</v>
       </c>
       <c r="AB52" s="18" t="n">
-        <v>2916473</v>
+        <v>2733107</v>
       </c>
       <c r="AC52" s="18" t="n">
-        <v>2733107</v>
+        <v>2848471</v>
       </c>
       <c r="AD52" s="18" t="n">
-        <v>2848471</v>
+        <v>3372234</v>
       </c>
       <c r="AE52" s="18" t="n">
-        <v>3372234</v>
+        <v>4705536</v>
       </c>
       <c r="AF52" s="18" t="n">
-        <v>4705536</v>
+        <v>3877472</v>
       </c>
       <c r="AG52" s="18" t="n">
-        <v>3877472</v>
+        <v>2798318</v>
       </c>
       <c r="AH52" s="18" t="n">
-        <v>2798318</v>
+        <v>3051750</v>
       </c>
       <c r="AI52" s="18" t="n">
-        <v>3051750</v>
+        <v>2659316</v>
       </c>
       <c r="AJ52" s="18" t="n">
-        <v>2659316</v>
+        <v>5024113</v>
       </c>
       <c r="AK52" s="18" t="n">
-        <v>5024113</v>
+        <v>5534121</v>
       </c>
       <c r="AL52" s="18" t="n">
-        <v>5534121</v>
+        <v>5876025</v>
       </c>
       <c r="AM52" s="18" t="n">
-        <v>5876025</v>
+        <v>5885526</v>
       </c>
       <c r="AN52" s="18" t="n">
-        <v>5885526</v>
+        <v>4449956</v>
       </c>
       <c r="AO52" s="18" t="n">
-        <v>4449956</v>
+        <v>5924201</v>
       </c>
       <c r="AP52" s="18" t="n">
-        <v>5924201</v>
+        <v>4382489</v>
       </c>
       <c r="AQ52" s="18" t="n">
-        <v>4382489</v>
+        <v>4268626</v>
       </c>
       <c r="AR52" s="18" t="n">
-        <v>4268626</v>
+        <v>4775499</v>
       </c>
       <c r="AS52" s="18" t="n">
-        <v>4775499</v>
+        <v>4691333</v>
       </c>
       <c r="AT52" s="18" t="n">
-        <v>4691333</v>
+        <v>4397196</v>
       </c>
       <c r="AU52" s="18" t="n">
-        <v>4397196</v>
+        <v>6031016</v>
       </c>
       <c r="AV52" s="18" t="n">
-        <v>6031016</v>
+        <v>4082862</v>
       </c>
       <c r="AW52" s="18" t="n">
-        <v>4082862</v>
+        <v>6288666</v>
       </c>
       <c r="AX52" s="18" t="n">
-        <v>6288666</v>
+        <v>5368010</v>
       </c>
       <c r="AY52" s="18" t="n">
-        <v>5368010</v>
+        <v>3443803</v>
       </c>
       <c r="AZ52" s="18" t="n">
-        <v>3443803</v>
+        <v>5298231</v>
       </c>
       <c r="BA52" s="18" t="n">
-        <v>5298231</v>
+        <v>7189723</v>
       </c>
       <c r="BB52" s="18" t="n">
-        <v>7189723</v>
+        <v>5627117</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8462,107 +8462,107 @@
       <c r="T54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U54" s="13" t="s">
-        <v>58</v>
+      <c r="U54" s="13" t="n">
+        <v>2737546</v>
       </c>
       <c r="V54" s="13" t="n">
-        <v>2737546</v>
+        <v>1883817</v>
       </c>
       <c r="W54" s="13" t="n">
-        <v>1883817</v>
+        <v>2901815</v>
       </c>
       <c r="X54" s="13" t="n">
-        <v>2901815</v>
+        <v>3824470</v>
       </c>
       <c r="Y54" s="13" t="n">
-        <v>3824470</v>
+        <v>4784238</v>
       </c>
       <c r="Z54" s="13" t="n">
-        <v>4784238</v>
+        <v>5925994</v>
       </c>
       <c r="AA54" s="13" t="n">
-        <v>5925994</v>
+        <v>5930766</v>
       </c>
       <c r="AB54" s="13" t="n">
-        <v>5930766</v>
+        <v>5055532</v>
       </c>
       <c r="AC54" s="13" t="n">
-        <v>5055532</v>
+        <v>4723059</v>
       </c>
       <c r="AD54" s="13" t="n">
-        <v>4723059</v>
+        <v>6810781</v>
       </c>
       <c r="AE54" s="13" t="n">
-        <v>6810781</v>
+        <v>5153529</v>
       </c>
       <c r="AF54" s="13" t="n">
-        <v>5153529</v>
+        <v>7783760</v>
       </c>
       <c r="AG54" s="13" t="n">
-        <v>7783760</v>
+        <v>5098684</v>
       </c>
       <c r="AH54" s="13" t="n">
-        <v>5098684</v>
+        <v>3591055</v>
       </c>
       <c r="AI54" s="13" t="n">
-        <v>3591055</v>
+        <v>4845472</v>
       </c>
       <c r="AJ54" s="13" t="n">
-        <v>4845472</v>
+        <v>5484187</v>
       </c>
       <c r="AK54" s="13" t="n">
-        <v>5484187</v>
+        <v>6287689</v>
       </c>
       <c r="AL54" s="13" t="n">
-        <v>6287689</v>
+        <v>5626271</v>
       </c>
       <c r="AM54" s="13" t="n">
-        <v>5626271</v>
+        <v>5456899</v>
       </c>
       <c r="AN54" s="13" t="n">
-        <v>5456899</v>
+        <v>8919413</v>
       </c>
       <c r="AO54" s="13" t="n">
-        <v>8919413</v>
+        <v>4801904</v>
       </c>
       <c r="AP54" s="13" t="n">
-        <v>4801904</v>
+        <v>3104019</v>
       </c>
       <c r="AQ54" s="13" t="n">
-        <v>3104019</v>
+        <v>2960185</v>
       </c>
       <c r="AR54" s="13" t="n">
-        <v>2960185</v>
+        <v>4235524</v>
       </c>
       <c r="AS54" s="13" t="n">
-        <v>4235524</v>
+        <v>3857235</v>
       </c>
       <c r="AT54" s="13" t="n">
-        <v>3857235</v>
+        <v>6562740</v>
       </c>
       <c r="AU54" s="13" t="n">
-        <v>6562740</v>
+        <v>7770018</v>
       </c>
       <c r="AV54" s="13" t="n">
-        <v>7770018</v>
+        <v>4662993</v>
       </c>
       <c r="AW54" s="13" t="n">
-        <v>4662993</v>
+        <v>6445179</v>
       </c>
       <c r="AX54" s="13" t="n">
-        <v>6445179</v>
+        <v>5746733</v>
       </c>
       <c r="AY54" s="13" t="n">
-        <v>5746733</v>
+        <v>4758017</v>
       </c>
       <c r="AZ54" s="13" t="n">
-        <v>4758017</v>
+        <v>4794802</v>
       </c>
       <c r="BA54" s="13" t="n">
-        <v>4794802</v>
+        <v>6731999</v>
       </c>
       <c r="BB54" s="13" t="n">
-        <v>6731999</v>
+        <v>2605476</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8620,106 +8620,106 @@
         <v>0</v>
       </c>
       <c r="U55" s="20" t="n">
-        <v>0</v>
+        <v>2737546</v>
       </c>
       <c r="V55" s="20" t="n">
-        <v>2737546</v>
+        <v>1883817</v>
       </c>
       <c r="W55" s="20" t="n">
-        <v>1883817</v>
+        <v>2901815</v>
       </c>
       <c r="X55" s="20" t="n">
-        <v>2901815</v>
+        <v>3824470</v>
       </c>
       <c r="Y55" s="20" t="n">
-        <v>3824470</v>
+        <v>4784238</v>
       </c>
       <c r="Z55" s="20" t="n">
-        <v>4784238</v>
+        <v>5925994</v>
       </c>
       <c r="AA55" s="20" t="n">
-        <v>5925994</v>
+        <v>5930766</v>
       </c>
       <c r="AB55" s="20" t="n">
-        <v>5930766</v>
+        <v>5055532</v>
       </c>
       <c r="AC55" s="20" t="n">
-        <v>5055532</v>
+        <v>4723059</v>
       </c>
       <c r="AD55" s="20" t="n">
-        <v>4723059</v>
+        <v>6810781</v>
       </c>
       <c r="AE55" s="20" t="n">
-        <v>6810781</v>
+        <v>5153529</v>
       </c>
       <c r="AF55" s="20" t="n">
-        <v>5153529</v>
+        <v>7783760</v>
       </c>
       <c r="AG55" s="20" t="n">
-        <v>7783760</v>
+        <v>5098684</v>
       </c>
       <c r="AH55" s="20" t="n">
-        <v>5098684</v>
+        <v>3591055</v>
       </c>
       <c r="AI55" s="20" t="n">
-        <v>3591055</v>
+        <v>4845472</v>
       </c>
       <c r="AJ55" s="20" t="n">
-        <v>4845472</v>
+        <v>5484187</v>
       </c>
       <c r="AK55" s="20" t="n">
-        <v>5484187</v>
+        <v>6287689</v>
       </c>
       <c r="AL55" s="20" t="n">
-        <v>6287689</v>
+        <v>5626271</v>
       </c>
       <c r="AM55" s="20" t="n">
-        <v>5626271</v>
+        <v>5456899</v>
       </c>
       <c r="AN55" s="20" t="n">
-        <v>5456899</v>
+        <v>8919413</v>
       </c>
       <c r="AO55" s="20" t="n">
-        <v>8919413</v>
+        <v>4801904</v>
       </c>
       <c r="AP55" s="20" t="n">
-        <v>4801904</v>
+        <v>3104019</v>
       </c>
       <c r="AQ55" s="20" t="n">
-        <v>3104019</v>
+        <v>2960185</v>
       </c>
       <c r="AR55" s="20" t="n">
-        <v>2960185</v>
+        <v>4235524</v>
       </c>
       <c r="AS55" s="20" t="n">
-        <v>4235524</v>
+        <v>3857235</v>
       </c>
       <c r="AT55" s="20" t="n">
-        <v>3857235</v>
+        <v>6562740</v>
       </c>
       <c r="AU55" s="20" t="n">
-        <v>6562740</v>
+        <v>7770018</v>
       </c>
       <c r="AV55" s="20" t="n">
-        <v>7770018</v>
+        <v>4662993</v>
       </c>
       <c r="AW55" s="20" t="n">
-        <v>4662993</v>
+        <v>6445179</v>
       </c>
       <c r="AX55" s="20" t="n">
-        <v>6445179</v>
+        <v>5746733</v>
       </c>
       <c r="AY55" s="20" t="n">
-        <v>5746733</v>
+        <v>4758017</v>
       </c>
       <c r="AZ55" s="20" t="n">
-        <v>4758017</v>
+        <v>4794802</v>
       </c>
       <c r="BA55" s="20" t="n">
-        <v>4794802</v>
+        <v>6731999</v>
       </c>
       <c r="BB55" s="20" t="n">
-        <v>6731999</v>
+        <v>2605476</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8835,8 +8835,8 @@
       <c r="T57" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U57" s="18" t="s">
-        <v>58</v>
+      <c r="U57" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V57" s="23" t="n">
         <v>0</v>
@@ -9051,104 +9051,104 @@
       <c r="T59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U59" s="13" t="s">
-        <v>58</v>
+      <c r="U59" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V59" s="13" t="n">
-        <v>0</v>
+        <v>-3463</v>
       </c>
       <c r="W59" s="13" t="n">
-        <v>-3463</v>
+        <v>-4248</v>
       </c>
       <c r="X59" s="13" t="n">
-        <v>-4248</v>
+        <v>-4007</v>
       </c>
       <c r="Y59" s="13" t="n">
-        <v>-4007</v>
+        <v>-3750</v>
       </c>
       <c r="Z59" s="13" t="n">
-        <v>-3750</v>
+        <v>-5417</v>
       </c>
       <c r="AA59" s="13" t="n">
-        <v>-5417</v>
+        <v>-10567</v>
       </c>
       <c r="AB59" s="13" t="n">
-        <v>-10567</v>
+        <v>-603</v>
       </c>
       <c r="AC59" s="13" t="n">
-        <v>-603</v>
+        <v>-792</v>
       </c>
       <c r="AD59" s="13" t="n">
-        <v>-792</v>
+        <v>0</v>
       </c>
       <c r="AE59" s="13" t="n">
-        <v>0</v>
+        <v>-2732</v>
       </c>
       <c r="AF59" s="13" t="n">
-        <v>-2732</v>
+        <v>-19274</v>
       </c>
       <c r="AG59" s="13" t="n">
-        <v>-19274</v>
+        <v>-3452</v>
       </c>
       <c r="AH59" s="13" t="n">
-        <v>-3452</v>
+        <v>0</v>
       </c>
       <c r="AI59" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AJ59" s="13" t="n">
-        <v>0</v>
+        <v>-1207</v>
       </c>
       <c r="AK59" s="13" t="n">
-        <v>-1207</v>
+        <v>-17204</v>
       </c>
       <c r="AL59" s="13" t="n">
-        <v>-17204</v>
+        <v>-11889</v>
       </c>
       <c r="AM59" s="13" t="n">
-        <v>-11889</v>
+        <v>-3910</v>
       </c>
       <c r="AN59" s="13" t="n">
-        <v>-3910</v>
+        <v>-11566</v>
       </c>
       <c r="AO59" s="13" t="n">
-        <v>-11566</v>
+        <v>-2945</v>
       </c>
       <c r="AP59" s="13" t="n">
-        <v>-2945</v>
+        <v>-5947</v>
       </c>
       <c r="AQ59" s="13" t="n">
-        <v>-5947</v>
+        <v>-3586</v>
       </c>
       <c r="AR59" s="13" t="n">
-        <v>-3586</v>
+        <v>-22198</v>
       </c>
       <c r="AS59" s="13" t="n">
-        <v>-22198</v>
+        <v>-8281</v>
       </c>
       <c r="AT59" s="13" t="n">
-        <v>-8281</v>
+        <v>-39065</v>
       </c>
       <c r="AU59" s="13" t="n">
-        <v>-39065</v>
+        <v>-7425</v>
       </c>
       <c r="AV59" s="13" t="n">
-        <v>-7425</v>
+        <v>-73547</v>
       </c>
       <c r="AW59" s="13" t="n">
-        <v>-73547</v>
+        <v>-57788</v>
       </c>
       <c r="AX59" s="13" t="n">
-        <v>-57788</v>
+        <v>-164034</v>
       </c>
       <c r="AY59" s="13" t="n">
-        <v>-164034</v>
+        <v>-3327</v>
       </c>
       <c r="AZ59" s="13" t="n">
-        <v>-3327</v>
+        <v>-17347</v>
       </c>
       <c r="BA59" s="13" t="n">
-        <v>-17347</v>
+        <v>0</v>
       </c>
       <c r="BB59" s="13" t="n">
         <v>0</v>
@@ -9210,104 +9210,104 @@
       <c r="T60" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U60" s="20" t="s">
-        <v>58</v>
+      <c r="U60" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="V60" s="24" t="n">
-        <v>0</v>
+        <v>-3463</v>
       </c>
       <c r="W60" s="24" t="n">
-        <v>-3463</v>
+        <v>-4248</v>
       </c>
       <c r="X60" s="24" t="n">
-        <v>-4248</v>
+        <v>-4007</v>
       </c>
       <c r="Y60" s="24" t="n">
-        <v>-4007</v>
+        <v>-3750</v>
       </c>
       <c r="Z60" s="24" t="n">
-        <v>-3750</v>
+        <v>-5417</v>
       </c>
       <c r="AA60" s="24" t="n">
-        <v>-5417</v>
+        <v>-10567</v>
       </c>
       <c r="AB60" s="24" t="n">
-        <v>-10567</v>
+        <v>-603</v>
       </c>
       <c r="AC60" s="24" t="n">
-        <v>-603</v>
+        <v>-792</v>
       </c>
       <c r="AD60" s="24" t="n">
-        <v>-792</v>
+        <v>0</v>
       </c>
       <c r="AE60" s="24" t="n">
-        <v>0</v>
+        <v>-2732</v>
       </c>
       <c r="AF60" s="24" t="n">
-        <v>-2732</v>
+        <v>-19274</v>
       </c>
       <c r="AG60" s="24" t="n">
-        <v>-19274</v>
+        <v>-3452</v>
       </c>
       <c r="AH60" s="24" t="n">
-        <v>-3452</v>
+        <v>0</v>
       </c>
       <c r="AI60" s="24" t="n">
         <v>0</v>
       </c>
       <c r="AJ60" s="24" t="n">
-        <v>0</v>
+        <v>-1207</v>
       </c>
       <c r="AK60" s="24" t="n">
-        <v>-1207</v>
+        <v>-17204</v>
       </c>
       <c r="AL60" s="24" t="n">
-        <v>-17204</v>
+        <v>-11889</v>
       </c>
       <c r="AM60" s="24" t="n">
-        <v>-11889</v>
+        <v>-3910</v>
       </c>
       <c r="AN60" s="24" t="n">
-        <v>-3910</v>
+        <v>-11566</v>
       </c>
       <c r="AO60" s="24" t="n">
-        <v>-11566</v>
+        <v>-2945</v>
       </c>
       <c r="AP60" s="24" t="n">
-        <v>-2945</v>
+        <v>-5947</v>
       </c>
       <c r="AQ60" s="24" t="n">
-        <v>-5947</v>
+        <v>-3586</v>
       </c>
       <c r="AR60" s="24" t="n">
-        <v>-3586</v>
+        <v>-22198</v>
       </c>
       <c r="AS60" s="24" t="n">
-        <v>-22198</v>
+        <v>-8281</v>
       </c>
       <c r="AT60" s="24" t="n">
-        <v>-8281</v>
+        <v>-39065</v>
       </c>
       <c r="AU60" s="24" t="n">
-        <v>-39065</v>
+        <v>-7425</v>
       </c>
       <c r="AV60" s="24" t="n">
-        <v>-7425</v>
+        <v>-73547</v>
       </c>
       <c r="AW60" s="24" t="n">
-        <v>-73547</v>
+        <v>-57788</v>
       </c>
       <c r="AX60" s="24" t="n">
-        <v>-57788</v>
+        <v>-164034</v>
       </c>
       <c r="AY60" s="24" t="n">
-        <v>-164034</v>
+        <v>-3327</v>
       </c>
       <c r="AZ60" s="24" t="n">
-        <v>-3327</v>
+        <v>-17347</v>
       </c>
       <c r="BA60" s="24" t="n">
-        <v>-17347</v>
+        <v>0</v>
       </c>
       <c r="BB60" s="24" t="n">
         <v>0</v>
@@ -9426,8 +9426,8 @@
       <c r="T62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U62" s="13" t="s">
-        <v>58</v>
+      <c r="U62" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V62" s="13" t="n">
         <v>0</v>
@@ -9584,106 +9584,106 @@
         <v>0</v>
       </c>
       <c r="U63" s="24" t="n">
-        <v>0</v>
+        <v>5008444</v>
       </c>
       <c r="V63" s="24" t="n">
-        <v>5008444</v>
+        <v>4287631</v>
       </c>
       <c r="W63" s="24" t="n">
-        <v>4287631</v>
+        <v>6843982</v>
       </c>
       <c r="X63" s="24" t="n">
-        <v>6843982</v>
+        <v>7916721</v>
       </c>
       <c r="Y63" s="24" t="n">
-        <v>7916721</v>
+        <v>9041591</v>
       </c>
       <c r="Z63" s="24" t="n">
-        <v>9041591</v>
+        <v>9654242</v>
       </c>
       <c r="AA63" s="24" t="n">
-        <v>9654242</v>
+        <v>8836672</v>
       </c>
       <c r="AB63" s="24" t="n">
-        <v>8836672</v>
+        <v>7788036</v>
       </c>
       <c r="AC63" s="24" t="n">
-        <v>7788036</v>
+        <v>7570738</v>
       </c>
       <c r="AD63" s="24" t="n">
-        <v>7570738</v>
+        <v>10183015</v>
       </c>
       <c r="AE63" s="24" t="n">
-        <v>10183015</v>
+        <v>9856333</v>
       </c>
       <c r="AF63" s="24" t="n">
-        <v>9856333</v>
+        <v>11641958</v>
       </c>
       <c r="AG63" s="24" t="n">
-        <v>11641958</v>
+        <v>7893550</v>
       </c>
       <c r="AH63" s="24" t="n">
-        <v>7893550</v>
+        <v>6642805</v>
       </c>
       <c r="AI63" s="24" t="n">
-        <v>6642805</v>
+        <v>7504788</v>
       </c>
       <c r="AJ63" s="24" t="n">
-        <v>7504788</v>
+        <v>10507093</v>
       </c>
       <c r="AK63" s="24" t="n">
-        <v>10507093</v>
+        <v>11804606</v>
       </c>
       <c r="AL63" s="24" t="n">
-        <v>11804606</v>
+        <v>11490407</v>
       </c>
       <c r="AM63" s="24" t="n">
-        <v>11490407</v>
+        <v>11338515</v>
       </c>
       <c r="AN63" s="24" t="n">
-        <v>11338515</v>
+        <v>13357803</v>
       </c>
       <c r="AO63" s="24" t="n">
-        <v>13357803</v>
+        <v>10723160</v>
       </c>
       <c r="AP63" s="24" t="n">
-        <v>10723160</v>
+        <v>7480561</v>
       </c>
       <c r="AQ63" s="24" t="n">
-        <v>7480561</v>
+        <v>7225225</v>
       </c>
       <c r="AR63" s="24" t="n">
-        <v>7225225</v>
+        <v>8988825</v>
       </c>
       <c r="AS63" s="24" t="n">
-        <v>8988825</v>
+        <v>8540287</v>
       </c>
       <c r="AT63" s="24" t="n">
-        <v>8540287</v>
+        <v>10920871</v>
       </c>
       <c r="AU63" s="24" t="n">
-        <v>10920871</v>
+        <v>13793609</v>
       </c>
       <c r="AV63" s="24" t="n">
-        <v>13793609</v>
+        <v>8672308</v>
       </c>
       <c r="AW63" s="24" t="n">
-        <v>8672308</v>
+        <v>12676057</v>
       </c>
       <c r="AX63" s="24" t="n">
-        <v>12676057</v>
+        <v>10950709</v>
       </c>
       <c r="AY63" s="24" t="n">
-        <v>10950709</v>
+        <v>8198493</v>
       </c>
       <c r="AZ63" s="24" t="n">
-        <v>8198493</v>
+        <v>10075686</v>
       </c>
       <c r="BA63" s="24" t="n">
-        <v>10075686</v>
+        <v>13921722</v>
       </c>
       <c r="BB63" s="24" t="n">
-        <v>13921722</v>
+        <v>8232593</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10254,12 +10254,12 @@
       <c r="AT70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV70" s="13" t="n">
+      <c r="AU70" s="13" t="n">
         <v>130400</v>
       </c>
+      <c r="AV70" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AW70" s="13" t="s">
         <v>58</v>
       </c>
@@ -10272,11 +10272,11 @@
       <c r="AZ70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB70" s="13" t="n">
+      <c r="BA70" s="13" t="n">
         <v>194994</v>
+      </c>
+      <c r="BB70" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10335,107 +10335,107 @@
       <c r="T71" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U71" s="16" t="s">
-        <v>58</v>
+      <c r="U71" s="16" t="n">
+        <v>81823</v>
       </c>
       <c r="V71" s="16" t="n">
-        <v>81823</v>
+        <v>91773</v>
       </c>
       <c r="W71" s="16" t="n">
-        <v>91773</v>
+        <v>100214</v>
       </c>
       <c r="X71" s="16" t="n">
-        <v>100214</v>
+        <v>118426</v>
       </c>
       <c r="Y71" s="16" t="n">
-        <v>118426</v>
+        <v>124180</v>
       </c>
       <c r="Z71" s="16" t="n">
-        <v>124180</v>
+        <v>121056</v>
       </c>
       <c r="AA71" s="16" t="n">
-        <v>121056</v>
+        <v>123928</v>
       </c>
       <c r="AB71" s="16" t="n">
-        <v>123928</v>
+        <v>129416</v>
       </c>
       <c r="AC71" s="16" t="n">
-        <v>129416</v>
+        <v>136712</v>
       </c>
       <c r="AD71" s="16" t="n">
-        <v>136712</v>
+        <v>148744</v>
       </c>
       <c r="AE71" s="16" t="n">
-        <v>148744</v>
+        <v>158247</v>
       </c>
       <c r="AF71" s="16" t="n">
-        <v>158247</v>
+        <v>167986</v>
       </c>
       <c r="AG71" s="16" t="n">
-        <v>167986</v>
+        <v>171617</v>
       </c>
       <c r="AH71" s="16" t="n">
-        <v>171617</v>
+        <v>188653</v>
       </c>
       <c r="AI71" s="16" t="n">
-        <v>188653</v>
+        <v>183838</v>
       </c>
       <c r="AJ71" s="16" t="n">
-        <v>183838</v>
+        <v>178191</v>
       </c>
       <c r="AK71" s="16" t="n">
-        <v>178191</v>
+        <v>183193</v>
       </c>
       <c r="AL71" s="16" t="n">
-        <v>183193</v>
+        <v>187352</v>
       </c>
       <c r="AM71" s="16" t="n">
-        <v>187352</v>
+        <v>189993</v>
       </c>
       <c r="AN71" s="16" t="n">
-        <v>189993</v>
+        <v>176788</v>
       </c>
       <c r="AO71" s="16" t="n">
-        <v>176788</v>
+        <v>183837</v>
       </c>
       <c r="AP71" s="16" t="n">
-        <v>183837</v>
+        <v>206839</v>
       </c>
       <c r="AQ71" s="16" t="n">
-        <v>206839</v>
+        <v>199824</v>
       </c>
       <c r="AR71" s="16" t="n">
-        <v>199824</v>
+        <v>217655</v>
       </c>
       <c r="AS71" s="16" t="n">
-        <v>217655</v>
+        <v>226140</v>
       </c>
       <c r="AT71" s="16" t="n">
-        <v>226140</v>
+        <v>221117</v>
       </c>
       <c r="AU71" s="16" t="n">
-        <v>221117</v>
+        <v>189296</v>
       </c>
       <c r="AV71" s="16" t="n">
-        <v>189296</v>
+        <v>196746</v>
       </c>
       <c r="AW71" s="16" t="n">
-        <v>196746</v>
+        <v>189804</v>
       </c>
       <c r="AX71" s="16" t="n">
-        <v>189804</v>
+        <v>198465</v>
       </c>
       <c r="AY71" s="16" t="n">
-        <v>198465</v>
+        <v>238774</v>
       </c>
       <c r="AZ71" s="16" t="n">
-        <v>238774</v>
+        <v>271510</v>
       </c>
       <c r="BA71" s="16" t="n">
-        <v>271510</v>
+        <v>282458</v>
       </c>
       <c r="BB71" s="16" t="n">
-        <v>282458</v>
+        <v>296113</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10494,107 +10494,107 @@
       <c r="T72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U72" s="13" t="s">
-        <v>58</v>
+      <c r="U72" s="13" t="n">
+        <v>5176</v>
       </c>
       <c r="V72" s="13" t="n">
-        <v>5176</v>
+        <v>49367</v>
       </c>
       <c r="W72" s="13" t="n">
-        <v>49367</v>
+        <v>19970</v>
       </c>
       <c r="X72" s="13" t="n">
-        <v>19970</v>
+        <v>33003</v>
       </c>
       <c r="Y72" s="13" t="n">
-        <v>33003</v>
+        <v>82919</v>
       </c>
       <c r="Z72" s="13" t="n">
-        <v>82919</v>
+        <v>44277</v>
       </c>
       <c r="AA72" s="13" t="n">
-        <v>44277</v>
+        <v>61916</v>
       </c>
       <c r="AB72" s="13" t="n">
-        <v>61916</v>
+        <v>84094</v>
       </c>
       <c r="AC72" s="13" t="n">
-        <v>84094</v>
+        <v>65038</v>
       </c>
       <c r="AD72" s="13" t="n">
-        <v>65038</v>
+        <v>57403</v>
       </c>
       <c r="AE72" s="13" t="n">
-        <v>57403</v>
+        <v>60076</v>
       </c>
       <c r="AF72" s="13" t="n">
-        <v>60076</v>
+        <v>44896</v>
       </c>
       <c r="AG72" s="13" t="n">
-        <v>44896</v>
+        <v>48214</v>
       </c>
       <c r="AH72" s="13" t="n">
-        <v>48214</v>
+        <v>45822</v>
       </c>
       <c r="AI72" s="13" t="n">
-        <v>45822</v>
+        <v>60450</v>
       </c>
       <c r="AJ72" s="13" t="n">
-        <v>60450</v>
+        <v>83620</v>
       </c>
       <c r="AK72" s="13" t="n">
-        <v>83620</v>
+        <v>95361</v>
       </c>
       <c r="AL72" s="13" t="n">
-        <v>95361</v>
+        <v>100990</v>
       </c>
       <c r="AM72" s="13" t="n">
-        <v>100990</v>
+        <v>89108</v>
       </c>
       <c r="AN72" s="13" t="n">
-        <v>89108</v>
+        <v>105796</v>
       </c>
       <c r="AO72" s="13" t="n">
-        <v>105796</v>
+        <v>111097</v>
       </c>
       <c r="AP72" s="13" t="n">
-        <v>111097</v>
+        <v>100920</v>
       </c>
       <c r="AQ72" s="13" t="n">
-        <v>100920</v>
+        <v>33108</v>
       </c>
       <c r="AR72" s="13" t="n">
-        <v>33108</v>
+        <v>49544</v>
       </c>
       <c r="AS72" s="13" t="n">
-        <v>49544</v>
+        <v>33406</v>
       </c>
       <c r="AT72" s="13" t="n">
-        <v>33406</v>
+        <v>53509</v>
       </c>
       <c r="AU72" s="13" t="n">
-        <v>53509</v>
+        <v>66961</v>
       </c>
       <c r="AV72" s="13" t="n">
-        <v>66961</v>
+        <v>75765</v>
       </c>
       <c r="AW72" s="13" t="n">
-        <v>75765</v>
+        <v>67941</v>
       </c>
       <c r="AX72" s="13" t="n">
-        <v>67941</v>
+        <v>75775</v>
       </c>
       <c r="AY72" s="13" t="n">
-        <v>75775</v>
+        <v>111050</v>
       </c>
       <c r="AZ72" s="13" t="n">
-        <v>111050</v>
+        <v>144361</v>
       </c>
       <c r="BA72" s="13" t="n">
-        <v>144361</v>
+        <v>155428</v>
       </c>
       <c r="BB72" s="13" t="n">
-        <v>155428</v>
+        <v>116402</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10710,107 +10710,107 @@
       <c r="T74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U74" s="13" t="s">
-        <v>58</v>
+      <c r="U74" s="13" t="n">
+        <v>75563</v>
       </c>
       <c r="V74" s="13" t="n">
-        <v>75563</v>
+        <v>87399</v>
       </c>
       <c r="W74" s="13" t="n">
-        <v>87399</v>
+        <v>98360</v>
       </c>
       <c r="X74" s="13" t="n">
-        <v>98360</v>
+        <v>123524</v>
       </c>
       <c r="Y74" s="13" t="n">
-        <v>123524</v>
+        <v>116879</v>
       </c>
       <c r="Z74" s="13" t="n">
-        <v>116879</v>
+        <v>110061</v>
       </c>
       <c r="AA74" s="13" t="n">
-        <v>110061</v>
+        <v>112282</v>
       </c>
       <c r="AB74" s="13" t="n">
-        <v>112282</v>
+        <v>116235</v>
       </c>
       <c r="AC74" s="13" t="n">
-        <v>116235</v>
+        <v>121292</v>
       </c>
       <c r="AD74" s="13" t="n">
-        <v>121292</v>
+        <v>124815</v>
       </c>
       <c r="AE74" s="13" t="n">
-        <v>124815</v>
+        <v>118477</v>
       </c>
       <c r="AF74" s="13" t="n">
-        <v>118477</v>
+        <v>131045</v>
       </c>
       <c r="AG74" s="13" t="n">
-        <v>131045</v>
+        <v>159535</v>
       </c>
       <c r="AH74" s="13" t="n">
-        <v>159535</v>
+        <v>164353</v>
       </c>
       <c r="AI74" s="13" t="n">
-        <v>164353</v>
+        <v>170076</v>
       </c>
       <c r="AJ74" s="13" t="n">
-        <v>170076</v>
+        <v>161346</v>
       </c>
       <c r="AK74" s="13" t="n">
-        <v>161346</v>
+        <v>160948</v>
       </c>
       <c r="AL74" s="13" t="n">
-        <v>160948</v>
+        <v>162347</v>
       </c>
       <c r="AM74" s="13" t="n">
-        <v>162347</v>
+        <v>154783</v>
       </c>
       <c r="AN74" s="13" t="n">
-        <v>154783</v>
+        <v>141380</v>
       </c>
       <c r="AO74" s="13" t="n">
-        <v>141380</v>
+        <v>144287</v>
       </c>
       <c r="AP74" s="13" t="n">
-        <v>144287</v>
+        <v>165298</v>
       </c>
       <c r="AQ74" s="13" t="n">
-        <v>165298</v>
+        <v>166297</v>
       </c>
       <c r="AR74" s="13" t="n">
-        <v>166297</v>
+        <v>176052</v>
       </c>
       <c r="AS74" s="13" t="n">
-        <v>176052</v>
+        <v>175228</v>
       </c>
       <c r="AT74" s="13" t="n">
-        <v>175228</v>
+        <v>161232</v>
       </c>
       <c r="AU74" s="13" t="n">
-        <v>161232</v>
+        <v>151795</v>
       </c>
       <c r="AV74" s="13" t="n">
-        <v>151795</v>
+        <v>153455</v>
       </c>
       <c r="AW74" s="13" t="n">
-        <v>153455</v>
+        <v>148251</v>
       </c>
       <c r="AX74" s="13" t="n">
-        <v>148251</v>
+        <v>145100</v>
       </c>
       <c r="AY74" s="13" t="n">
-        <v>145100</v>
+        <v>152465</v>
       </c>
       <c r="AZ74" s="13" t="n">
-        <v>152465</v>
+        <v>163007</v>
       </c>
       <c r="BA74" s="13" t="n">
-        <v>163007</v>
+        <v>183515</v>
       </c>
       <c r="BB74" s="13" t="n">
-        <v>183515</v>
+        <v>207822</v>
       </c>
     </row>
   </sheetData>
